--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_20-02.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_20-02.xlsx
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>فرش اسنان اورل فريش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرش اسنان فوكس </t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -3367,13 +3370,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3393,17 +3396,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3419,17 +3422,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3451,7 +3454,7 @@
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3471,13 +3474,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3497,13 +3500,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3523,13 +3526,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3549,13 +3552,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3575,51 +3578,77 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
-      <c r="K103" s="10">
-        <v>4727.5200000000004</v>
-      </c>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="10"/>
-    </row>
-    <row r="104" ht="17.25" customHeight="1">
-      <c t="s" r="A104" s="11">
+      <c r="A103" s="6">
+        <v>100</v>
+      </c>
+      <c t="s" r="B103" s="7">
+        <v>141</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c t="s" r="H103" s="8">
         <v>142</v>
       </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c t="s" r="F104" s="12">
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="9">
+        <v>20</v>
+      </c>
+      <c r="M103" s="9"/>
+      <c t="s" r="N103" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="K104" s="10">
+        <v>4807.5200000000004</v>
+      </c>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="11">
         <v>143</v>
       </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="13"/>
-      <c t="s" r="I104" s="14">
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c t="s" r="F105" s="12">
         <v>144</v>
       </c>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="14"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="13"/>
+      <c t="s" r="I105" s="14">
+        <v>145</v>
+      </c>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="308">
+  <mergeCells count="311">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3924,10 +3953,13 @@
     <mergeCell ref="B102:G102"/>
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
-    <mergeCell ref="K103:N103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="I104:N104"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="K104:N104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="I105:N105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
